--- a/测试单-电子书_daisy_170124.xlsx
+++ b/测试单-电子书_daisy_170124.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="784" activeTab="1"/>
@@ -732,10 +732,6 @@
   </si>
   <si>
     <t>无法修改，遗留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1923,6 +1919,10 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2月6日已修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1932,7 +1932,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2864,16 +2864,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2888,7 +2888,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2912,7 +2912,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2936,7 +2936,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3057,12 +3057,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3656,10 +3651,10 @@
         <v>42754</v>
       </c>
       <c r="F15" s="155" t="s">
+        <v>315</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="13" customFormat="1">
@@ -3785,10 +3780,10 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
+      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3815,7 +3810,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L1" s="68"/>
       <c r="M1" s="68"/>
@@ -3834,19 +3829,19 @@
         <v>2</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E2" s="51" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="53" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I2" s="54" t="s">
         <v>5</v>
@@ -3890,14 +3885,14 @@
         <v>42517</v>
       </c>
       <c r="F3" s="126" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="132" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H3" s="93"/>
       <c r="I3" s="93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" s="91"/>
       <c r="K3" s="130">
@@ -3934,16 +3929,16 @@
         <v>42517</v>
       </c>
       <c r="F4" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="121" t="s">
-        <v>170</v>
-      </c>
       <c r="H4" s="80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I4" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J4" s="83"/>
       <c r="K4" s="122">
@@ -3980,10 +3975,10 @@
         <v>42517</v>
       </c>
       <c r="F5" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="124" t="s">
         <v>232</v>
-      </c>
-      <c r="G5" s="124" t="s">
-        <v>233</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="79" t="s">
@@ -4024,10 +4019,10 @@
         <v>42517</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="124" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="80"/>
       <c r="I6" s="79" t="s">
@@ -4062,16 +4057,16 @@
         <v>42517</v>
       </c>
       <c r="F7" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="124" t="s">
         <v>235</v>
       </c>
-      <c r="G7" s="124" t="s">
+      <c r="H7" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="79" t="s">
         <v>236</v>
-      </c>
-      <c r="H7" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="I7" s="79" t="s">
-        <v>237</v>
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="122">
@@ -4108,16 +4103,16 @@
         <v>42517</v>
       </c>
       <c r="F8" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="124" t="s">
-        <v>172</v>
-      </c>
       <c r="H8" s="79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I8" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" s="83"/>
       <c r="K8" s="122">
@@ -4150,14 +4145,14 @@
         <v>42517</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" s="124" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9" s="80"/>
       <c r="I9" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J9" s="83"/>
       <c r="K9" s="122">
@@ -4193,14 +4188,14 @@
         <v>42558</v>
       </c>
       <c r="F10" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="124" t="s">
         <v>173</v>
-      </c>
-      <c r="G10" s="124" t="s">
-        <v>174</v>
       </c>
       <c r="H10" s="80"/>
       <c r="I10" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="83"/>
       <c r="K10" s="122">
@@ -4233,10 +4228,10 @@
         <v>42558</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="141" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H11" s="137"/>
       <c r="I11" s="90" t="s">
@@ -4267,13 +4262,13 @@
         <v>42558</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" s="59" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H12" s="103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I12" s="106" t="s">
         <v>123</v>
@@ -4303,10 +4298,10 @@
         <v>42612</v>
       </c>
       <c r="F13" s="126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="132" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H13" s="93"/>
       <c r="I13" s="92" t="s">
@@ -4346,7 +4341,7 @@
         <v>28</v>
       </c>
       <c r="G14" s="141" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H14" s="137"/>
       <c r="I14" s="90" t="s">
@@ -4385,7 +4380,7 @@
         <v>42621</v>
       </c>
       <c r="F15" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15" s="63" t="s">
         <v>132</v>
@@ -4430,13 +4425,13 @@
         <v>134</v>
       </c>
       <c r="G16" s="118" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H16" s="106" t="s">
         <v>36</v>
       </c>
       <c r="I16" s="106" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K16" s="114"/>
       <c r="L16" s="103" t="s">
@@ -4458,7 +4453,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>18</v>
@@ -4473,10 +4468,10 @@
         <v>26</v>
       </c>
       <c r="G17" s="128" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I17" s="93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K17" s="130">
         <v>42677</v>
@@ -4496,7 +4491,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="79" t="s">
         <v>130</v>
@@ -4508,14 +4503,14 @@
         <v>42625</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G18" s="131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H18" s="80"/>
       <c r="I18" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K18" s="122">
         <v>42666</v>
@@ -4529,7 +4524,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="79" t="s">
         <v>130</v>
@@ -4544,11 +4539,11 @@
         <v>23</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H19" s="80"/>
       <c r="I19" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K19" s="122">
         <v>42666</v>
@@ -4568,7 +4563,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="79" t="s">
         <v>130</v>
@@ -4583,7 +4578,7 @@
         <v>30</v>
       </c>
       <c r="G20" s="121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H20" s="80"/>
       <c r="I20" s="79" t="s">
@@ -4610,7 +4605,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="79" t="s">
         <v>130</v>
@@ -4625,11 +4620,11 @@
         <v>23</v>
       </c>
       <c r="G21" s="124" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H21" s="80"/>
       <c r="I21" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K21" s="122">
         <v>42677</v>
@@ -4650,7 +4645,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="79" t="s">
         <v>130</v>
@@ -4665,11 +4660,11 @@
         <v>24</v>
       </c>
       <c r="G22" s="124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" s="80"/>
       <c r="I22" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K22" s="122">
         <v>42666</v>
@@ -4692,7 +4687,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="79" t="s">
         <v>130</v>
@@ -4707,11 +4702,11 @@
         <v>23</v>
       </c>
       <c r="G23" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H23" s="80"/>
       <c r="I23" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K23" s="122">
         <v>42677</v>
@@ -4725,7 +4720,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="79" t="s">
         <v>130</v>
@@ -4740,13 +4735,13 @@
         <v>25</v>
       </c>
       <c r="G24" s="124" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H24" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I24" s="79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" s="122">
         <v>42666</v>
@@ -4769,7 +4764,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="79" t="s">
         <v>130</v>
@@ -4781,10 +4776,10 @@
         <v>42625</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G25" s="121" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H25" s="80"/>
       <c r="I25" s="79" t="s">
@@ -4811,7 +4806,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="79" t="s">
         <v>130</v>
@@ -4826,7 +4821,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H26" s="80"/>
       <c r="I26" s="79" t="s">
@@ -4852,7 +4847,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="79" t="s">
         <v>130</v>
@@ -4867,13 +4862,13 @@
         <v>31</v>
       </c>
       <c r="G27" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H27" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="80" t="s">
         <v>178</v>
-      </c>
-      <c r="I27" s="80" t="s">
-        <v>179</v>
       </c>
       <c r="K27" s="122">
         <v>42666</v>
@@ -4895,7 +4890,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="79" t="s">
         <v>130</v>
@@ -4910,7 +4905,7 @@
         <v>29</v>
       </c>
       <c r="G28" s="124" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H28" s="80"/>
       <c r="I28" s="79" t="s">
@@ -4930,10 +4925,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="79" t="s">
         <v>180</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>181</v>
       </c>
       <c r="D29" s="81">
         <v>42616</v>
@@ -4945,11 +4940,11 @@
         <v>32</v>
       </c>
       <c r="G29" s="121" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H29" s="80"/>
       <c r="I29" s="80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K29" s="122">
         <v>42669</v>
@@ -4967,10 +4962,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="79" t="s">
         <v>180</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>181</v>
       </c>
       <c r="D30" s="81">
         <v>42616</v>
@@ -4982,13 +4977,13 @@
         <v>32</v>
       </c>
       <c r="G30" s="124" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="I30" s="80" t="s">
         <v>216</v>
-      </c>
-      <c r="H30" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" s="80" t="s">
-        <v>217</v>
       </c>
       <c r="K30" s="122">
         <v>42640</v>
@@ -5004,7 +4999,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C31" s="79" t="s">
         <v>130</v>
@@ -5019,7 +5014,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H31" s="80"/>
       <c r="I31" s="79" t="s">
@@ -5039,10 +5034,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="79" t="s">
         <v>180</v>
-      </c>
-      <c r="C32" s="79" t="s">
-        <v>181</v>
       </c>
       <c r="D32" s="81">
         <v>42616</v>
@@ -5054,13 +5049,13 @@
         <v>33</v>
       </c>
       <c r="G32" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="H32" s="79" t="s">
-        <v>185</v>
-      </c>
       <c r="I32" s="80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K32" s="122">
         <v>42724</v>
@@ -5082,10 +5077,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="79" t="s">
         <v>180</v>
-      </c>
-      <c r="C33" s="79" t="s">
-        <v>181</v>
       </c>
       <c r="D33" s="81">
         <v>42616</v>
@@ -5097,11 +5092,11 @@
         <v>34</v>
       </c>
       <c r="G33" s="124" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H33" s="80"/>
       <c r="I33" s="80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K33" s="122">
         <v>42666</v>
@@ -5119,7 +5114,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="79" t="s">
         <v>130</v>
@@ -5134,7 +5129,7 @@
         <v>34</v>
       </c>
       <c r="G34" s="124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H34" s="80"/>
       <c r="I34" s="79" t="s">
@@ -5161,7 +5156,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35" s="79" t="s">
         <v>130</v>
@@ -5176,7 +5171,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="124" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H35" s="80"/>
       <c r="I35" s="79" t="s">
@@ -5203,7 +5198,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" s="79" t="s">
         <v>130</v>
@@ -5215,10 +5210,10 @@
         <v>42627</v>
       </c>
       <c r="F36" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="124" t="s">
         <v>248</v>
-      </c>
-      <c r="G36" s="124" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="80"/>
       <c r="I36" s="79" t="s">
@@ -5245,7 +5240,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="90" t="s">
         <v>130</v>
@@ -5257,10 +5252,10 @@
         <v>42627</v>
       </c>
       <c r="F37" s="135" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="141" t="s">
         <v>250</v>
-      </c>
-      <c r="G37" s="141" t="s">
-        <v>251</v>
       </c>
       <c r="H37" s="137"/>
       <c r="I37" s="90" t="s">
@@ -5282,10 +5277,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D38" s="104">
         <v>42640</v>
@@ -5294,16 +5289,16 @@
         <v>42641</v>
       </c>
       <c r="F38" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="G38" s="59" t="s">
-        <v>188</v>
-      </c>
       <c r="H38" s="106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I38" s="106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K38" s="114">
         <v>42741</v>
@@ -5333,13 +5328,13 @@
         <v>42641</v>
       </c>
       <c r="F39" s="126" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" s="132" t="s">
         <v>252</v>
       </c>
-      <c r="G39" s="132" t="s">
-        <v>253</v>
-      </c>
       <c r="H39" s="93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I39" s="92" t="s">
         <v>124</v>
@@ -5376,13 +5371,13 @@
         <v>42641</v>
       </c>
       <c r="F40" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40" s="124" t="s">
         <v>254</v>
       </c>
-      <c r="G40" s="124" t="s">
-        <v>255</v>
-      </c>
       <c r="H40" s="80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I40" s="79" t="s">
         <v>124</v>
@@ -5419,13 +5414,13 @@
         <v>42641</v>
       </c>
       <c r="F41" s="135" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G41" s="141" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H41" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I41" s="90" t="s">
         <v>124</v>
@@ -5504,13 +5499,13 @@
         <v>42641</v>
       </c>
       <c r="F43" s="127" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="G43" s="132" t="s">
-        <v>258</v>
-      </c>
       <c r="H43" s="93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I43" s="92" t="s">
         <v>124</v>
@@ -5549,13 +5544,13 @@
         <v>42641</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G44" s="124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H44" s="80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I44" s="79" t="s">
         <v>124</v>
@@ -5594,13 +5589,13 @@
         <v>42641</v>
       </c>
       <c r="F45" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" s="124" t="s">
         <v>260</v>
       </c>
-      <c r="G45" s="124" t="s">
-        <v>261</v>
-      </c>
       <c r="H45" s="80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I45" s="79" t="s">
         <v>124</v>
@@ -5637,10 +5632,10 @@
         <v>42641</v>
       </c>
       <c r="F46" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="G46" s="124" t="s">
         <v>262</v>
-      </c>
-      <c r="G46" s="124" t="s">
-        <v>263</v>
       </c>
       <c r="H46" s="80"/>
       <c r="I46" s="79" t="s">
@@ -5678,10 +5673,10 @@
         <v>42641</v>
       </c>
       <c r="F47" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="G47" s="124" t="s">
         <v>264</v>
-      </c>
-      <c r="G47" s="124" t="s">
-        <v>265</v>
       </c>
       <c r="H47" s="80"/>
       <c r="I47" s="79" t="s">
@@ -5719,13 +5714,13 @@
         <v>42641</v>
       </c>
       <c r="F48" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G48" s="121" t="s">
         <v>266</v>
       </c>
-      <c r="G48" s="121" t="s">
-        <v>267</v>
-      </c>
       <c r="H48" s="80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I48" s="79" t="s">
         <v>124</v>
@@ -5750,10 +5745,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D49" s="81">
         <v>42640</v>
@@ -5762,14 +5757,14 @@
         <v>42641</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G49" s="121" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H49" s="80"/>
       <c r="I49" s="80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K49" s="122">
         <v>42666</v>
@@ -5803,13 +5798,13 @@
         <v>42641</v>
       </c>
       <c r="F50" s="134" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" s="141" t="s">
         <v>268</v>
       </c>
-      <c r="G50" s="141" t="s">
-        <v>269</v>
-      </c>
       <c r="H50" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I50" s="90" t="s">
         <v>124</v>
@@ -5845,16 +5840,16 @@
         <v>42668</v>
       </c>
       <c r="F51" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G51" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H51" s="106" t="s">
         <v>41</v>
       </c>
       <c r="I51" s="106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L51" s="103" t="s">
         <v>48</v>
@@ -5887,16 +5882,16 @@
         <v>42668</v>
       </c>
       <c r="F52" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G52" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H52" s="106" t="s">
         <v>41</v>
       </c>
       <c r="I52" s="106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L52" s="103" t="s">
         <v>48</v>
@@ -5917,10 +5912,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D53" s="94">
         <v>42666</v>
@@ -5929,16 +5924,16 @@
         <v>42668</v>
       </c>
       <c r="F53" s="126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H53" s="93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I53" s="80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K53" s="130">
         <v>42666</v>
@@ -5966,13 +5961,13 @@
         <v>42668</v>
       </c>
       <c r="F54" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="124" t="s">
         <v>270</v>
       </c>
-      <c r="G54" s="124" t="s">
-        <v>271</v>
-      </c>
       <c r="H54" s="80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I54" s="79" t="s">
         <v>124</v>
@@ -6011,13 +6006,13 @@
         <v>42669</v>
       </c>
       <c r="F55" s="135" t="s">
+        <v>271</v>
+      </c>
+      <c r="G55" s="141" t="s">
         <v>272</v>
       </c>
-      <c r="G55" s="141" t="s">
-        <v>273</v>
-      </c>
       <c r="H55" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I55" s="90" t="s">
         <v>124</v>
@@ -6057,7 +6052,7 @@
         <v>51</v>
       </c>
       <c r="G56" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H56" s="106" t="s">
         <v>41</v>
@@ -6096,25 +6091,25 @@
         <v>42669</v>
       </c>
       <c r="F57" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G57" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H57" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="I57" s="106" t="s">
-        <v>136</v>
-      </c>
+      <c r="I57" s="106"/>
       <c r="K57" s="114"/>
       <c r="L57" s="103" t="s">
         <v>47</v>
       </c>
       <c r="M57" s="106"/>
-      <c r="N57" s="106"/>
+      <c r="N57" s="106" t="s">
+        <v>318</v>
+      </c>
       <c r="O57" s="104">
-        <v>42754</v>
+        <v>42772</v>
       </c>
       <c r="P57" s="103" t="s">
         <v>92</v>
@@ -6137,10 +6132,10 @@
         <v>42679</v>
       </c>
       <c r="F58" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="G58" s="118" t="s">
         <v>274</v>
-      </c>
-      <c r="G58" s="118" t="s">
-        <v>275</v>
       </c>
       <c r="H58" s="106" t="s">
         <v>78</v>
@@ -6170,10 +6165,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="92" t="s">
         <v>276</v>
-      </c>
-      <c r="C59" s="92" t="s">
-        <v>277</v>
       </c>
       <c r="D59" s="94">
         <v>42677</v>
@@ -6182,13 +6177,13 @@
         <v>42679</v>
       </c>
       <c r="F59" s="145" t="s">
+        <v>277</v>
+      </c>
+      <c r="G59" s="128" t="s">
         <v>278</v>
       </c>
-      <c r="G59" s="128" t="s">
+      <c r="H59" s="93" t="s">
         <v>279</v>
-      </c>
-      <c r="H59" s="93" t="s">
-        <v>280</v>
       </c>
       <c r="I59" s="93" t="s">
         <v>131</v>
@@ -6206,10 +6201,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C60" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="81">
         <v>42695</v>
@@ -6218,16 +6213,16 @@
         <v>42698</v>
       </c>
       <c r="F60" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G60" s="133" t="s">
         <v>191</v>
       </c>
-      <c r="G60" s="133" t="s">
-        <v>192</v>
-      </c>
       <c r="H60" s="80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K60" s="122">
         <v>42724</v>
@@ -6247,10 +6242,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C61" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="89">
         <v>42695</v>
@@ -6259,16 +6254,16 @@
         <v>42698</v>
       </c>
       <c r="F61" s="135" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G61" s="136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H61" s="137" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I61" s="88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K61" s="138">
         <v>42724</v>
@@ -6288,10 +6283,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C62" s="103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="104">
         <v>42695</v>
@@ -6300,16 +6295,16 @@
         <v>42698</v>
       </c>
       <c r="F62" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="G62" s="139" t="s">
         <v>194</v>
       </c>
-      <c r="G62" s="139" t="s">
-        <v>195</v>
-      </c>
       <c r="H62" s="106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K62" s="114">
         <v>42741</v>
@@ -6331,10 +6326,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C63" s="103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="104">
         <v>42695</v>
@@ -6343,16 +6338,16 @@
         <v>42698</v>
       </c>
       <c r="F63" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G63" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H63" s="106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I63" s="96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K63" s="114">
         <v>42741</v>
@@ -6376,10 +6371,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" s="103" t="s">
         <v>276</v>
-      </c>
-      <c r="C64" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="D64" s="104">
         <v>42695</v>
@@ -6388,13 +6383,13 @@
         <v>42698</v>
       </c>
       <c r="F64" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="G64" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="G64" s="74" t="s">
-        <v>282</v>
-      </c>
       <c r="H64" s="106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I64" s="96" t="s">
         <v>131</v>
@@ -6419,10 +6414,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D65" s="104">
         <v>42695</v>
@@ -6434,13 +6429,13 @@
         <v>107</v>
       </c>
       <c r="G65" s="139" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H65" s="106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I65" s="96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K65" s="114">
         <v>42741</v>
@@ -6470,16 +6465,16 @@
         <v>42698</v>
       </c>
       <c r="F66" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G66" s="74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H66" s="64" t="s">
         <v>36</v>
       </c>
       <c r="I66" s="96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K66" s="114"/>
       <c r="L66" s="106" t="s">
@@ -6499,10 +6494,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C67" s="92" t="s">
         <v>276</v>
-      </c>
-      <c r="C67" s="92" t="s">
-        <v>277</v>
       </c>
       <c r="D67" s="94">
         <v>42695</v>
@@ -6511,10 +6506,10 @@
         <v>42698</v>
       </c>
       <c r="F67" s="146" t="s">
+        <v>282</v>
+      </c>
+      <c r="G67" s="150" t="s">
         <v>283</v>
-      </c>
-      <c r="G67" s="150" t="s">
-        <v>284</v>
       </c>
       <c r="I67" s="91" t="s">
         <v>131</v>
@@ -6538,10 +6533,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68" s="79" t="s">
         <v>276</v>
-      </c>
-      <c r="C68" s="79" t="s">
-        <v>277</v>
       </c>
       <c r="D68" s="81">
         <v>42695</v>
@@ -6550,10 +6545,10 @@
         <v>42698</v>
       </c>
       <c r="F68" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="G68" s="39" t="s">
         <v>285</v>
-      </c>
-      <c r="G68" s="39" t="s">
-        <v>286</v>
       </c>
       <c r="I68" s="83" t="s">
         <v>131</v>
@@ -6579,10 +6574,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" s="79" t="s">
         <v>276</v>
-      </c>
-      <c r="C69" s="79" t="s">
-        <v>277</v>
       </c>
       <c r="D69" s="81">
         <v>42695</v>
@@ -6591,10 +6586,10 @@
         <v>42698</v>
       </c>
       <c r="F69" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="G69" s="133" t="s">
         <v>287</v>
-      </c>
-      <c r="G69" s="133" t="s">
-        <v>288</v>
       </c>
       <c r="I69" s="83" t="s">
         <v>131</v>
@@ -6618,10 +6613,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="90" t="s">
         <v>276</v>
-      </c>
-      <c r="C70" s="90" t="s">
-        <v>277</v>
       </c>
       <c r="D70" s="151">
         <v>42713</v>
@@ -6630,13 +6625,13 @@
         <v>42715</v>
       </c>
       <c r="F70" s="88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G70" s="136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H70" s="137" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I70" s="87" t="s">
         <v>131</v>
@@ -6662,10 +6657,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="103" t="s">
         <v>198</v>
-      </c>
-      <c r="C71" s="103" t="s">
-        <v>199</v>
       </c>
       <c r="D71" s="112">
         <v>42724</v>
@@ -6674,16 +6669,16 @@
         <v>42725</v>
       </c>
       <c r="F71" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="H71" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="G71" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="H71" s="106" t="s">
+      <c r="I71" s="96" t="s">
         <v>201</v>
-      </c>
-      <c r="I71" s="96" t="s">
-        <v>202</v>
       </c>
       <c r="K71" s="114">
         <v>42754</v>
@@ -6705,10 +6700,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="103" t="s">
         <v>276</v>
-      </c>
-      <c r="C72" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="D72" s="112">
         <v>42724</v>
@@ -6717,13 +6712,13 @@
         <v>42726</v>
       </c>
       <c r="F72" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="G72" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="G72" s="49" t="s">
-        <v>291</v>
-      </c>
       <c r="H72" s="106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I72" s="96" t="s">
         <v>131</v>
@@ -6769,7 +6764,7 @@
         <v>36</v>
       </c>
       <c r="I73" s="96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K73" s="114"/>
       <c r="L73" s="95" t="s">
@@ -6791,10 +6786,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="103" t="s">
         <v>198</v>
-      </c>
-      <c r="C74" s="103" t="s">
-        <v>199</v>
       </c>
       <c r="D74" s="112">
         <v>42724</v>
@@ -6803,16 +6798,16 @@
         <v>42726</v>
       </c>
       <c r="F74" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="G74" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="G74" s="76" t="s">
+      <c r="H74" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="I74" s="96" t="s">
         <v>204</v>
-      </c>
-      <c r="H74" s="106" t="s">
-        <v>201</v>
-      </c>
-      <c r="I74" s="96" t="s">
-        <v>205</v>
       </c>
       <c r="K74" s="114">
         <v>42754</v>
@@ -6836,10 +6831,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" s="103" t="s">
         <v>276</v>
-      </c>
-      <c r="C75" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="D75" s="112">
         <v>42724</v>
@@ -6848,10 +6843,10 @@
         <v>42727</v>
       </c>
       <c r="F75" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="G75" s="49" t="s">
         <v>292</v>
-      </c>
-      <c r="G75" s="49" t="s">
-        <v>293</v>
       </c>
       <c r="I75" s="96" t="s">
         <v>131</v>
@@ -6876,10 +6871,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="103" t="s">
         <v>276</v>
-      </c>
-      <c r="C76" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="D76" s="112">
         <v>42724</v>
@@ -6888,10 +6883,10 @@
         <v>42727</v>
       </c>
       <c r="F76" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="G76" s="49" t="s">
         <v>294</v>
-      </c>
-      <c r="G76" s="49" t="s">
-        <v>295</v>
       </c>
       <c r="I76" s="96" t="s">
         <v>131</v>
@@ -6918,10 +6913,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="103" t="s">
         <v>276</v>
-      </c>
-      <c r="C77" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="D77" s="112">
         <v>42724</v>
@@ -6930,13 +6925,13 @@
         <v>42727</v>
       </c>
       <c r="F77" s="96" t="s">
+        <v>295</v>
+      </c>
+      <c r="G77" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="G77" s="49" t="s">
-        <v>297</v>
-      </c>
       <c r="H77" s="106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I77" s="96" t="s">
         <v>131</v>
@@ -6961,10 +6956,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" s="103" t="s">
         <v>276</v>
-      </c>
-      <c r="C78" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="D78" s="112">
         <v>42724</v>
@@ -6973,10 +6968,10 @@
         <v>42727</v>
       </c>
       <c r="F78" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="G78" s="49" t="s">
         <v>298</v>
-      </c>
-      <c r="G78" s="49" t="s">
-        <v>299</v>
       </c>
       <c r="I78" s="96" t="s">
         <v>131</v>
@@ -7003,10 +6998,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" s="103" t="s">
         <v>198</v>
-      </c>
-      <c r="C79" s="103" t="s">
-        <v>199</v>
       </c>
       <c r="D79" s="112">
         <v>42724</v>
@@ -7015,16 +7010,16 @@
         <v>42727</v>
       </c>
       <c r="F79" s="96" t="s">
+        <v>205</v>
+      </c>
+      <c r="G79" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="G79" s="49" t="s">
-        <v>207</v>
-      </c>
       <c r="H79" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="I79" s="96" t="s">
         <v>201</v>
-      </c>
-      <c r="I79" s="96" t="s">
-        <v>202</v>
       </c>
       <c r="K79" s="114">
         <v>42754</v>
@@ -7048,10 +7043,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="103" t="s">
         <v>198</v>
-      </c>
-      <c r="C80" s="103" t="s">
-        <v>199</v>
       </c>
       <c r="D80" s="112">
         <v>42724</v>
@@ -7060,16 +7055,16 @@
         <v>42727</v>
       </c>
       <c r="F80" s="96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G80" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H80" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="I80" s="96" t="s">
         <v>201</v>
-      </c>
-      <c r="I80" s="96" t="s">
-        <v>202</v>
       </c>
       <c r="K80" s="114">
         <v>42754</v>
@@ -7105,13 +7100,13 @@
         <v>42728</v>
       </c>
       <c r="F81" s="96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G81" s="76" t="s">
         <v>90</v>
       </c>
       <c r="I81" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K81" s="114"/>
       <c r="L81" s="97" t="s">
@@ -7145,13 +7140,13 @@
         <v>42728</v>
       </c>
       <c r="F82" s="113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G82" s="76" t="s">
         <v>89</v>
       </c>
       <c r="I82" s="106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K82" s="114"/>
       <c r="L82" s="95" t="s">
@@ -7227,16 +7222,16 @@
         <v>42741</v>
       </c>
       <c r="F84" s="96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G84" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H84" s="106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I84" s="96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K84" s="114">
         <v>42754</v>
@@ -7260,10 +7255,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="103" t="s">
         <v>276</v>
-      </c>
-      <c r="C85" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="D85" s="104">
         <v>42741</v>
@@ -7272,7 +7267,7 @@
         <v>42741</v>
       </c>
       <c r="F85" s="66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G85" s="49" t="s">
         <v>104</v>
@@ -7315,13 +7310,13 @@
         <v>106</v>
       </c>
       <c r="G86" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H86" s="64" t="s">
         <v>36</v>
       </c>
       <c r="I86" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K86" s="114"/>
       <c r="L86" s="103" t="s">
@@ -7341,10 +7336,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" s="103" t="s">
         <v>276</v>
-      </c>
-      <c r="C87" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="D87" s="104">
         <v>42741</v>
@@ -7353,13 +7348,13 @@
         <v>42741</v>
       </c>
       <c r="F87" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="G87" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="G87" s="63" t="s">
+      <c r="I87" s="96" t="s">
         <v>302</v>
-      </c>
-      <c r="I87" s="96" t="s">
-        <v>303</v>
       </c>
       <c r="K87" s="114">
         <v>42754</v>
@@ -7395,16 +7390,16 @@
         <v>42741</v>
       </c>
       <c r="F88" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="G88" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="G88" s="63" t="s">
-        <v>225</v>
-      </c>
       <c r="H88" s="106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I88" s="96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L88" s="95" t="s">
         <v>94</v>
@@ -7425,10 +7420,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="103" t="s">
         <v>276</v>
-      </c>
-      <c r="C89" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="D89" s="104">
         <v>42741</v>
@@ -7437,14 +7432,14 @@
         <v>42741</v>
       </c>
       <c r="F89" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="G89" s="63" t="s">
         <v>304</v>
-      </c>
-      <c r="G89" s="63" t="s">
-        <v>305</v>
       </c>
       <c r="H89" s="106"/>
       <c r="I89" s="96" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K89" s="114">
         <v>42754</v>
@@ -7466,10 +7461,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="103" t="s">
         <v>276</v>
-      </c>
-      <c r="C90" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="D90" s="104">
         <v>42741</v>
@@ -7478,10 +7473,10 @@
         <v>42741</v>
       </c>
       <c r="F90" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="G90" s="63" t="s">
         <v>306</v>
-      </c>
-      <c r="G90" s="63" t="s">
-        <v>307</v>
       </c>
       <c r="H90" s="106"/>
       <c r="I90" s="96" t="s">
@@ -7507,10 +7502,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" s="103" t="s">
         <v>276</v>
-      </c>
-      <c r="C91" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="D91" s="104">
         <v>42741</v>
@@ -7519,10 +7514,10 @@
         <v>42741</v>
       </c>
       <c r="F91" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="G91" s="63" t="s">
         <v>308</v>
-      </c>
-      <c r="G91" s="63" t="s">
-        <v>309</v>
       </c>
       <c r="H91" s="106" t="s">
         <v>78</v>
@@ -7562,7 +7557,7 @@
         <v>42759</v>
       </c>
       <c r="F92" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G92" s="63" t="s">
         <v>128</v>
@@ -7591,10 +7586,10 @@
         <v>42759</v>
       </c>
       <c r="F93" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G93" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H93" s="106" t="s">
         <v>36</v>
@@ -7620,10 +7615,10 @@
         <v>42759</v>
       </c>
       <c r="F94" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G94" s="63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H94" s="106" t="s">
         <v>36</v>
@@ -7678,10 +7673,10 @@
         <v>42759</v>
       </c>
       <c r="F96" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="G96" s="49" t="s">
         <v>144</v>
-      </c>
-      <c r="G96" s="49" t="s">
-        <v>145</v>
       </c>
       <c r="I96" s="48"/>
       <c r="K96" s="114"/>
@@ -7704,10 +7699,10 @@
         <v>42759</v>
       </c>
       <c r="F97" s="96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G97" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I97" s="48"/>
       <c r="K97" s="114"/>
@@ -7730,10 +7725,10 @@
         <v>42759</v>
       </c>
       <c r="F98" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98" s="49" t="s">
         <v>158</v>
-      </c>
-      <c r="G98" s="49" t="s">
-        <v>159</v>
       </c>
       <c r="I98" s="48"/>
       <c r="K98" s="114"/>
@@ -7756,7 +7751,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I75:I1048576 I1:I73">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7885,12 +7880,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I2">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L2">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_170124.xlsx
+++ b/测试单-电子书_daisy_170124.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="320">
   <si>
     <t>编号</t>
   </si>
@@ -1825,10 +1825,6 @@
   <si>
     <t>【目录浏览-内储】文星说明书Daisy3版，根目录下也不能列出来？而Are_you_ready_z3986（daisy3.0）的根目录下可列出来
 【9月3日版】存在【9月27日版】仅支持根目录下daisy。【1.24注】暂没有样例，待测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1921,6 +1917,14 @@
   </si>
   <si>
     <t>2月6日已修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在程序设计的时候不知道还有这种没有音频的情况，所以程序设计时都是按照播放音频去设计的，现在要改成音频播放和TTS播放融合在一起，这个很难。2月6日按照建议处理方案修改了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3651,10 +3655,10 @@
         <v>42754</v>
       </c>
       <c r="F15" s="155" t="s">
+        <v>314</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="13" customFormat="1">
@@ -3780,10 +3784,10 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4425,24 +4429,22 @@
         <v>134</v>
       </c>
       <c r="G16" s="118" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H16" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="106" t="s">
-        <v>314</v>
-      </c>
+      <c r="I16" s="106"/>
       <c r="K16" s="114"/>
       <c r="L16" s="103" t="s">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="M16" s="108"/>
       <c r="N16" s="96" t="s">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c r="O16" s="104">
-        <v>42754</v>
+        <v>42772</v>
       </c>
       <c r="P16" s="95" t="s">
         <v>63</v>
@@ -6106,7 +6108,7 @@
       </c>
       <c r="M57" s="106"/>
       <c r="N57" s="106" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O57" s="104">
         <v>42772</v>

--- a/测试单-电子书_daisy_170124.xlsx
+++ b/测试单-电子书_daisy_170124.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="322">
   <si>
     <t>编号</t>
   </si>
@@ -1925,6 +1925,14 @@
   </si>
   <si>
     <t>在程序设计的时候不知道还有这种没有音频的情况，所以程序设计时都是按照播放音频去设计的，现在要改成音频播放和TTS播放融合在一起，这个很难。2月6日按照建议处理方案修改了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3787,7 +3795,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
+      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7684,7 +7692,7 @@
       <c r="K96" s="114"/>
       <c r="N96" s="48"/>
     </row>
-    <row r="97" spans="1:14" s="47" customFormat="1" ht="54">
+    <row r="97" spans="1:16" s="47" customFormat="1" ht="54">
       <c r="A97" s="91">
         <v>95</v>
       </c>
@@ -7710,7 +7718,7 @@
       <c r="K97" s="114"/>
       <c r="N97" s="48"/>
     </row>
-    <row r="98" spans="1:14" s="47" customFormat="1" ht="27">
+    <row r="98" spans="1:16" s="47" customFormat="1" ht="27">
       <c r="A98" s="91">
         <v>96</v>
       </c>
@@ -7734,7 +7742,16 @@
       </c>
       <c r="I98" s="48"/>
       <c r="K98" s="114"/>
+      <c r="L98" s="95" t="s">
+        <v>320</v>
+      </c>
       <c r="N98" s="48"/>
+      <c r="O98" s="104">
+        <v>42772</v>
+      </c>
+      <c r="P98" s="95" t="s">
+        <v>321</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:P98">

--- a/测试单-电子书_daisy_170124.xlsx
+++ b/测试单-电子书_daisy_170124.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="323">
   <si>
     <t>编号</t>
   </si>
@@ -1933,6 +1933,10 @@
   </si>
   <si>
     <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断点记忆造成的。断点记忆应该基于手动选择朗读章节模式，并且需要判断章节序号。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3069,7 +3073,37 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3795,7 +3829,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
+      <selection pane="bottomRight" activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7333,12 +7367,14 @@
         <v>47</v>
       </c>
       <c r="M86" s="106"/>
-      <c r="N86" s="106"/>
+      <c r="N86" s="106" t="s">
+        <v>322</v>
+      </c>
       <c r="O86" s="104">
-        <v>42754</v>
-      </c>
-      <c r="P86" s="103" t="s">
-        <v>92</v>
+        <v>42772</v>
+      </c>
+      <c r="P86" s="95" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="27" hidden="1">
@@ -7575,11 +7611,21 @@
       <c r="H92" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M92" s="78"/>
-      <c r="N92" s="78"/>
-      <c r="O92" s="104"/>
-    </row>
-    <row r="93" spans="1:16" ht="40.5">
+      <c r="L92" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="M92" s="106"/>
+      <c r="N92" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="O92" s="104">
+        <v>42772</v>
+      </c>
+      <c r="P92" s="95" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="54">
       <c r="A93" s="91">
         <v>91</v>
       </c>
@@ -7604,9 +7650,19 @@
       <c r="H93" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M93" s="78"/>
-      <c r="N93" s="78"/>
-      <c r="O93" s="104"/>
+      <c r="L93" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="M93" s="106"/>
+      <c r="N93" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="O93" s="104">
+        <v>42772</v>
+      </c>
+      <c r="P93" s="95" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="94" spans="1:16" ht="54">
       <c r="A94" s="91">
@@ -7633,9 +7689,19 @@
       <c r="H94" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M94" s="78"/>
-      <c r="N94" s="78"/>
-      <c r="O94" s="104"/>
+      <c r="L94" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="M94" s="106"/>
+      <c r="N94" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="O94" s="104">
+        <v>42772</v>
+      </c>
+      <c r="P94" s="95" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="95" spans="1:16" ht="40.5">
       <c r="A95" s="91">
@@ -7770,17 +7836,17 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I75:I1048576 I1:I73">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L86 L51:L57 L60:L61 L18:L49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L86 L51:L57 L60:L61 L18:L49 L92:L94">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7899,12 +7965,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I2">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L2">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_170124.xlsx
+++ b/测试单-电子书_daisy_170124.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="324">
   <si>
     <t>编号</t>
   </si>
@@ -1937,6 +1937,10 @@
   </si>
   <si>
     <t>断点记忆造成的。断点记忆应该基于手动选择朗读章节模式，并且需要判断章节序号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁一下主菜单是因为我们的风格是透明的，这个无法修改，否则就是黑屏。TTS声音丢失的问题修改了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3073,32 +3077,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="6"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3829,7 +3808,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N95" sqref="N95"/>
+      <selection pane="bottomRight" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7732,7 +7711,7 @@
       <c r="N95" s="78"/>
       <c r="O95" s="104"/>
     </row>
-    <row r="96" spans="1:16" s="47" customFormat="1" ht="40.5">
+    <row r="96" spans="1:16" s="47" customFormat="1" ht="54">
       <c r="A96" s="91">
         <v>94</v>
       </c>
@@ -7756,7 +7735,19 @@
       </c>
       <c r="I96" s="48"/>
       <c r="K96" s="114"/>
-      <c r="N96" s="48"/>
+      <c r="L96" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="M96" s="95"/>
+      <c r="N96" s="96" t="s">
+        <v>323</v>
+      </c>
+      <c r="O96" s="104">
+        <v>42772</v>
+      </c>
+      <c r="P96" s="95" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="97" spans="1:16" s="47" customFormat="1" ht="54">
       <c r="A97" s="91">
@@ -7836,12 +7827,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I75:I1048576 I1:I73">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7965,12 +7956,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I2">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L2">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="否">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="否">
       <formula>NOT(ISERROR(SEARCH("否",L1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_daisy_170124.xlsx
+++ b/测试单-电子书_daisy_170124.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="324">
   <si>
     <t>编号</t>
   </si>
@@ -3805,10 +3805,10 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K96" sqref="K96"/>
+      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7773,7 +7773,17 @@
       </c>
       <c r="I97" s="48"/>
       <c r="K97" s="114"/>
-      <c r="N97" s="48"/>
+      <c r="L97" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="M97" s="95"/>
+      <c r="N97" s="96"/>
+      <c r="O97" s="104">
+        <v>42772</v>
+      </c>
+      <c r="P97" s="95" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="98" spans="1:16" s="47" customFormat="1" ht="27">
       <c r="A98" s="91">

--- a/测试单-电子书_daisy_170124.xlsx
+++ b/测试单-电子书_daisy_170124.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="324">
   <si>
     <t>编号</t>
   </si>
@@ -3805,10 +3805,10 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
+      <selection pane="bottomRight" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7707,9 +7707,15 @@
       <c r="H95" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M95" s="78"/>
-      <c r="N95" s="78"/>
-      <c r="O95" s="104"/>
+      <c r="L95" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="O95" s="104">
+        <v>42772</v>
+      </c>
+      <c r="P95" s="95" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="96" spans="1:16" s="47" customFormat="1" ht="54">
       <c r="A96" s="91">
